--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364FC964-8B3D-4362-8F86-FFE48EA83343}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="1" r:id="rId1"/>
     <sheet name="reg" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="152511" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Cool-Comp</t>
   </si>
@@ -32,9 +31,6 @@
     <t>Heat-Turb</t>
   </si>
   <si>
-    <t>Turb-Cool</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -66,12 +62,30 @@
   </si>
   <si>
     <t>Reg-Cool</t>
+  </si>
+  <si>
+    <t>Evap-Cool</t>
+  </si>
+  <si>
+    <t>Turb-Evap</t>
+  </si>
+  <si>
+    <t>OTurb-OCool</t>
+  </si>
+  <si>
+    <t>OCool-OPump</t>
+  </si>
+  <si>
+    <t>OPump-OEvap</t>
+  </si>
+  <si>
+    <t>OEvap-OTurb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,11 +396,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:XFD1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,25 +496,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -424,73 +524,12 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7494124A-7987-4A6A-AFC9-1EDC654CEE94}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -500,12 +539,12 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
